--- a/jpa-rest/src/main/resources/templates/EvaluationContentAggFile.xlsx
+++ b/jpa-rest/src/main/resources/templates/EvaluationContentAggFile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\java\avtsdm_qvcapi\src\main\resources\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\java\springboot-all-in-one\jpa-rest\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5FF2D0-7E7C-4CFE-AA17-E4EBAA586E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048D3865-0837-436E-B2EF-D73DF470790D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{8234DCBC-DC0D-48A1-BEEF-1E171FB1F3A8}"/>
   </bookViews>
@@ -179,10 +179,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -500,7 +500,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -513,15 +513,15 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -533,23 +533,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f7ac5285-7b0f-47b9-8de3-acca560c2bb8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AEFF2F7272C24744B1F8B0BA1D523C4D" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5cac7231bce1fca193a307114b20d1b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f7ac5285-7b0f-47b9-8de3-acca560c2bb8" xmlns:ns4="fea06ae5-813c-4597-8dc4-a522b2a242ac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1738ad3f9c01079e2e6a1f5a55dfef56" ns3:_="" ns4:_="">
     <xsd:import namespace="f7ac5285-7b0f-47b9-8de3-acca560c2bb8"/>
@@ -790,32 +773,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f7ac5285-7b0f-47b9-8de3-acca560c2bb8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC05254-FAD5-4313-9C1C-91794A4F8D87}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="fea06ae5-813c-4597-8dc4-a522b2a242ac"/>
-    <ds:schemaRef ds:uri="f7ac5285-7b0f-47b9-8de3-acca560c2bb8"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEE460D2-6A27-45AD-A757-26614E63A2A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1939356-7A45-491F-BF79-D0FF64D395A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -832,4 +807,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEE460D2-6A27-45AD-A757-26614E63A2A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC05254-FAD5-4313-9C1C-91794A4F8D87}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="fea06ae5-813c-4597-8dc4-a522b2a242ac"/>
+    <ds:schemaRef ds:uri="f7ac5285-7b0f-47b9-8de3-acca560c2bb8"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/jpa-rest/src/main/resources/templates/EvaluationContentAggFile.xlsx
+++ b/jpa-rest/src/main/resources/templates/EvaluationContentAggFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\java\springboot-all-in-one\jpa-rest\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048D3865-0837-436E-B2EF-D73DF470790D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C2C7A0-9202-46BF-9FB4-7C89946EADBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{8234DCBC-DC0D-48A1-BEEF-1E171FB1F3A8}"/>
   </bookViews>
@@ -55,16 +55,16 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{data[base.key]}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>{element.elementDescription}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{data.detailScore[element.elementId]}</t>
+    <t>{.detailScore[element.elementId]}</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.[base.key]}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -500,7 +500,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -514,15 +514,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
